--- a/diagram_data/2018_diagram_data.xlsx
+++ b/diagram_data/2018_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,2106 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P10_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P16_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P22_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P27_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P13_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P17_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P28_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P28_DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P19_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P10_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P11_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F4_P15_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P12_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P8_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P14_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P16_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F4_P17_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F5_P18_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F6_P21_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F7_P25_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F8_P27_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F9_P32_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P24_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P21_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P1_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P14_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P22_Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P6_Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P30_Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P5_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P9_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P7_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P14_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P15_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P27_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P18_Valentine_2018_AMJ_When Equity Seems Unfair.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P8_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P10_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P17_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P20_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P7_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P8_Pazzaglia et al._2018_HR_Keeping up with the Joneses.png</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Schepker et al_2018_AMJ_Planning for Future Leadership.png</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
